--- a/Charts/chart_inputs.xlsx
+++ b/Charts/chart_inputs.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial Modeling Projects/Mississippi PERS/Mississippi-PERS-modeling-Steve-Github/Outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial Modeling Projects/Mississippi PERS/MPERS-Optimized-Models-Steve-Github/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB82F7C7-E4E8-8C4F-BC3B-E108467ACA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9218B055-1C2A-B243-B2F7-FC293F9903DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{EA099284-7323-224D-B352-6C9782833128}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{EA099284-7323-224D-B352-6C9782833128}"/>
   </bookViews>
   <sheets>
     <sheet name="Funded Ratio" sheetId="1" r:id="rId1"/>
     <sheet name="UAL-MVA" sheetId="2" r:id="rId2"/>
     <sheet name="ER Contr Rate" sheetId="3" r:id="rId3"/>
     <sheet name="ER Contr Amount" sheetId="4" r:id="rId4"/>
+    <sheet name="ER All-in Cost" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -60,11 +61,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +77,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,11 +111,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -507,7 +519,7 @@
             <c:numRef>
               <c:f>'Funded Ratio'!$D$2:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0.70146994263405305</c:v>
@@ -645,7 +657,7 @@
             <c:numRef>
               <c:f>'Funded Ratio'!$E$2:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0.70146994263405305</c:v>
@@ -1164,7 +1176,7 @@
             <c:numRef>
               <c:f>'UAL-MVA'!$B$2:$B$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14987.403</c:v>
@@ -1407,7 +1419,7 @@
             <c:numRef>
               <c:f>'UAL-MVA'!$C$2:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14987.403</c:v>
@@ -1650,7 +1662,7 @@
             <c:numRef>
               <c:f>'UAL-MVA'!$D$2:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14987.403</c:v>
@@ -1893,7 +1905,7 @@
             <c:numRef>
               <c:f>'UAL-MVA'!$E$2:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14987.403</c:v>
@@ -1902,94 +1914,94 @@
                   <c:v>21208.884999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31288.820740769901</c:v>
+                  <c:v>31288.820739999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32001.981142047302</c:v>
+                  <c:v>32001.98114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32424.005291011399</c:v>
+                  <c:v>32424.005290000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32385.433732453501</c:v>
+                  <c:v>32385.433730000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32849.457701826301</c:v>
+                  <c:v>32849.457699999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33138.005761410597</c:v>
+                  <c:v>33138.00576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33180.606169871098</c:v>
+                  <c:v>33180.606169999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33161.036966448897</c:v>
+                  <c:v>33161.036970000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33072.008907138101</c:v>
+                  <c:v>33072.008909999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32907.473547378897</c:v>
+                  <c:v>32907.473550000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32659.908045898301</c:v>
+                  <c:v>32659.908049999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32321.4660249853</c:v>
+                  <c:v>32321.46602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31883.351012523101</c:v>
+                  <c:v>31883.351009999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31334.997633815401</c:v>
+                  <c:v>31334.997630000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30667.152414352298</c:v>
+                  <c:v>30667.152409999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39605.717207375797</c:v>
+                  <c:v>39605.717210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38634.822276043502</c:v>
+                  <c:v>38634.82228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37396.134347238301</c:v>
+                  <c:v>37396.13435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35578.574231913102</c:v>
+                  <c:v>35578.574229999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34079.379212840598</c:v>
+                  <c:v>34079.379209999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32354.768092981001</c:v>
+                  <c:v>32354.768090000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29789.347058656</c:v>
+                  <c:v>29789.34706</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26896.163429623299</c:v>
+                  <c:v>26896.163430000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23647.252703070899</c:v>
+                  <c:v>23647.252700000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20012.521726342598</c:v>
+                  <c:v>20012.52173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15959.2291082748</c:v>
+                  <c:v>15959.22911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11451.864576571201</c:v>
+                  <c:v>11451.864579999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6452.17641508018</c:v>
+                  <c:v>6452.1764149999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>919.53623998147702</c:v>
+                  <c:v>919.53624000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5190.2849870800701</c:v>
+                  <c:v>-5190.284987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,7 +2050,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2071,7 +2083,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3127,103 +3139,103 @@
             <c:numRef>
               <c:f>'ER Contr Amount'!$B$2:$B$33</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1086.8039999999999</c:v>
+                  <c:v>1086.8040000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1123.1699999999998</c:v>
+                  <c:v>1123.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1480.7685745037734</c:v>
+                  <c:v>1012.67361984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1568.0456705938168</c:v>
+                  <c:v>1039.5094707657599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1656.7904932418035</c:v>
+                  <c:v>1363.0558941525401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1712.4175606126184</c:v>
+                  <c:v>1443.4937115410601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1861.1143444108184</c:v>
+                  <c:v>1525.10477767613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1935.8673400773919</c:v>
+                  <c:v>1576.7135422245999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2013.9371116515672</c:v>
+                  <c:v>1712.4494424868101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2090.5781034022239</c:v>
+                  <c:v>1781.14956946555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2169.1884527319339</c:v>
+                  <c:v>1853.26675972624</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2251.2521896082781</c:v>
+                  <c:v>1924.09135282283</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2336.2980074680358</c:v>
+                  <c:v>1996.3662242171899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2424.729757023495</c:v>
+                  <c:v>2071.4947733580998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2516.4149091276495</c:v>
+                  <c:v>2149.1368322540802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2610.7190879487152</c:v>
+                  <c:v>2230.9086316634598</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2709.4230407164009</c:v>
+                  <c:v>2315.4625789431002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2811.8669221418854</c:v>
+                  <c:v>2401.6126958285199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2918.0986209740176</c:v>
+                  <c:v>2491.5777860826402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3028.1817018225556</c:v>
+                  <c:v>2584.7571011997902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3141.865267350744</c:v>
+                  <c:v>2681.9792520113401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3317.1358258631312</c:v>
+                  <c:v>2782.4927515593299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3513.0243744445083</c:v>
+                  <c:v>2886.1424425733398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3720.8934896063129</c:v>
+                  <c:v>3045.64646706127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3833.2807124418546</c:v>
+                  <c:v>3223.6200401082501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3980.8360228932866</c:v>
+                  <c:v>3414.2873509728502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4132.5467639053459</c:v>
+                  <c:v>3518.1696538133401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4284.9673158725273</c:v>
+                  <c:v>3652.23556526827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2068.4097965451297</c:v>
+                  <c:v>3790.08572953362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1982.7381082661611</c:v>
+                  <c:v>3928.49965032105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1947.2699722993275</c:v>
+                  <c:v>1922.25270527373</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1879.2367220631293</c:v>
+                  <c:v>1846.7793237306901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,97 +3283,97 @@
                   <c:v>1086.8040000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1123.1699999999998</c:v>
+                  <c:v>1123.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1480.7685745037743</c:v>
+                  <c:v>1012.67361984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1980.7156987990336</c:v>
+                  <c:v>1039.5094707657599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2246.3447847227067</c:v>
+                  <c:v>1363.0558941525401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2473.4482421726739</c:v>
+                  <c:v>1817.44866155662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2761.4038864086647</c:v>
+                  <c:v>2059.3494054264302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2911.6010297632224</c:v>
+                  <c:v>2266.3473198964298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2983.8612341837625</c:v>
+                  <c:v>2528.2773622937698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3057.2310080213124</c:v>
+                  <c:v>2665.34376389712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3138.9175477746649</c:v>
+                  <c:v>2732.19641773389</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3228.3964307104948</c:v>
+                  <c:v>2800.0566857097301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3301.9886884490516</c:v>
+                  <c:v>2875.1191514470001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3374.5056642775944</c:v>
+                  <c:v>2956.9671868226901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3445.9551462576155</c:v>
+                  <c:v>3024.2302135382802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3516.4773247681551</c:v>
+                  <c:v>3091.5803006671799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3586.528897505691</c:v>
+                  <c:v>3157.7970087663698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3707.7048831472589</c:v>
+                  <c:v>3222.3962590282199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4178.3831602840246</c:v>
+                  <c:v>3286.3970227995001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4607.8321499540943</c:v>
+                  <c:v>3396.55106982601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5054.3154575084036</c:v>
+                  <c:v>3824.0288550629498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5495.0129363092437</c:v>
+                  <c:v>4213.9466105716801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5883.5534204752212</c:v>
+                  <c:v>4619.1740813819097</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6118.9341602610184</c:v>
+                  <c:v>5019.2037169517498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6262.358878661893</c:v>
+                  <c:v>5371.7553790721404</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6451.6003251451284</c:v>
+                  <c:v>5587.3532821967701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6670.0537590795302</c:v>
+                  <c:v>5719.3612649011902</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6894.0738600933764</c:v>
+                  <c:v>5891.2024831403596</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3960.1593311822612</c:v>
+                  <c:v>6089.5338035105897</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3557.3691428770126</c:v>
+                  <c:v>6292.8300853973697</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3188.7355782250552</c:v>
+                  <c:v>3636.5257426056201</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2872.7996431062343</c:v>
+                  <c:v>3273.68467084749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,100 +3418,100 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1086.8039999999999</c:v>
+                  <c:v>1086.8040000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1123.1699999999998</c:v>
+                  <c:v>1123.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1480.7685745037743</c:v>
+                  <c:v>1012.67361984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1568.0456705938163</c:v>
+                  <c:v>1039.5094707657599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1656.7904932417998</c:v>
+                  <c:v>1363.0558941525401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1700.8592871884978</c:v>
+                  <c:v>1443.4937115410601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1746.0718144057073</c:v>
+                  <c:v>1525.10477767613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1792.4702772434857</c:v>
+                  <c:v>1565.6297556747299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1929.5354447528148</c:v>
+                  <c:v>1607.21698858532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2081.9488048515623</c:v>
+                  <c:v>1649.8934710385299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2137.1463469064029</c:v>
+                  <c:v>1790.43967559662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2193.802709634318</c:v>
+                  <c:v>1913.4341851643801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2251.9589629243765</c:v>
+                  <c:v>1964.1578051481199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2311.6521827470301</c:v>
+                  <c:v>2016.22201126698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2372.9249128559018</c:v>
+                  <c:v>2069.6638892143801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2620.6768012047683</c:v>
+                  <c:v>2124.5282346072599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2697.4411362252918</c:v>
+                  <c:v>2180.8425452735701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2775.6521764198014</c:v>
+                  <c:v>2418.3722646768501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2902.2322893637001</c:v>
+                  <c:v>2486.96724171299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2979.1871248968378</c:v>
+                  <c:v>2556.71125827989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3058.1853965326313</c:v>
+                  <c:v>2663.9066376842702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3418.4610017545615</c:v>
+                  <c:v>2734.5320971410802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3513.0204307738127</c:v>
+                  <c:v>2807.0283879478502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3655.3297644167797</c:v>
+                  <c:v>3140.5144967862302</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3751.707080140638</c:v>
+                  <c:v>3225.9432444531299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3850.0461313520245</c:v>
+                  <c:v>3349.6384920855799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4327.6666468798803</c:v>
+                  <c:v>3437.6877662291099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4445.9555294235734</c:v>
+                  <c:v>3528.1373252331</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4566.3756171229461</c:v>
+                  <c:v>3968.8324923405999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4689.4868462865952</c:v>
+                  <c:v>4075.8145101541299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4818.4869090481297</c:v>
+                  <c:v>4187.8902434212396</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4949.8779643253347</c:v>
+                  <c:v>4302.0523257531004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,100 +3556,100 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1086.8039999999999</c:v>
+                  <c:v>1086.8040000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1123.1699999999998</c:v>
+                  <c:v>1123.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1480.7685745037743</c:v>
+                  <c:v>1012.67361984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1980.7156987990336</c:v>
+                  <c:v>1039.5094707657599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2246.3447847227067</c:v>
+                  <c:v>1363.0558941525401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2473.4482421726739</c:v>
+                  <c:v>1817.44866155662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2761.4038864086647</c:v>
+                  <c:v>2059.3494054264302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2835.303755241102</c:v>
+                  <c:v>2266.3473198964298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2911.0851792342205</c:v>
+                  <c:v>2528.2773622937698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2988.7904101332674</c:v>
+                  <c:v>2595.75957973298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3068.7455556232403</c:v>
+                  <c:v>2665.1941002703502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3150.7058291453063</c:v>
+                  <c:v>2736.37086794383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3234.7943955003125</c:v>
+                  <c:v>2809.3962771634301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3320.9900744728161</c:v>
+                  <c:v>2884.2525981511599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3409.4013942349361</c:v>
+                  <c:v>2961.03366320035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3500.3669480788981</c:v>
+                  <c:v>3040.0311738063601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3593.610031651695</c:v>
+                  <c:v>3121.0076890381101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3760.7880037483392</c:v>
+                  <c:v>3204.09669965491</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4227.5830513801384</c:v>
+                  <c:v>3289.3030915387099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4659.4166233290262</c:v>
+                  <c:v>3444.6541409343799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4785.2788250118183</c:v>
+                  <c:v>3868.6130059779898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5547.0912687081836</c:v>
+                  <c:v>4260.69163163948</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5696.0842927480053</c:v>
+                  <c:v>4375.0949906332598</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5848.5635422787318</c:v>
+                  <c:v>5066.3962651332604</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6004.8389766629289</c:v>
+                  <c:v>5201.7638766011796</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6166.8165521880273</c:v>
+                  <c:v>5342.06105400455</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6332.431749286221</c:v>
+                  <c:v>5485.5129922157503</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6502.2304982751675</c:v>
+                  <c:v>5632.5898910737596</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6675.975301186937</c:v>
+                  <c:v>5783.08822063563</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6854.0484917185458</c:v>
+                  <c:v>5937.3375252256101</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7038.2896236576817</c:v>
+                  <c:v>6096.9205779854501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7226.8462591377665</c:v>
+                  <c:v>6260.2450592917903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,6 +3744,810 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631395135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Employer All-in Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ER All-in Cost'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADC_w_Assumed_ROA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ER All-in Cost'!$B$4:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>22376.512741827199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23552.321374413899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24727.4415502019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25895.677470553899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27055.689055876301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28205.823706931998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29342.029306308901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30462.155448988098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31563.648446999701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32645.201391911301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33704.754671004797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34740.310001417201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35749.558564043</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36729.458644169601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37678.145745161099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38593.026839817103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39471.220164812199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40309.6640187909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41104.856687448802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41853.678051168703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42552.742450301099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43197.106550985503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43780.956425734199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44299.048377447201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44746.659922590399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45119.040109224399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45410.749525085201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45616.3186326918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45771.160789527501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45888.699183360099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77AF-F240-9603-44571C6D746A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ER All-in Cost'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADC_w_RecurringRecession_ROA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ER All-in Cost'!$C$4:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>31544.428090000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32499.760060000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33446.945379999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34357.07761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35907.946349999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37440.148139999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38944.11073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40414.239659999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41847.347379999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43242.188670000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44596.553970000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45908.102339999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47174.582799999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48393.2595</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49562.688600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57491.719790000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58375.245819999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59178.364249999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59882.002419999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61050.296280000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62139.110030000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63135.48126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64027.403389999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64807.006179999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65467.91704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66003.437139999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66405.580119999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66665.993659999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66830.397979999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66920.616620000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77AF-F240-9603-44571C6D746A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ER All-in Cost'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SQ_w_Assumed_ROA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ER All-in Cost'!$D$4:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>22376.512741827199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23552.321374413899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24727.4415502019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25895.677470553899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27055.689055876301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28206.180019277799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29346.190675817001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30475.516526942301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31589.989311483401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32686.157855897502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33762.092648009799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34816.722813253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35848.7196958567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36856.113447678799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37838.182563216302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38788.947390626701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39704.791618237097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40583.498992152701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41421.649107482597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42216.846923610603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42966.796997450503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43663.155323398001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44300.819604363001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44876.770774827601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45387.284228917502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45828.800970814998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46190.518140230102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46465.558854458599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46650.151492791403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46739.1961304086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77AF-F240-9603-44571C6D746A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ER All-in Cost'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SQ_w_RecurringRecession_ROA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ER All-in Cost'!$E$4:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>31544.428086533098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32499.760055093098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33446.9453774629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34357.077613207097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35907.946349058497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37440.148140402001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38944.1107311253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40416.372965379902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41854.488784618101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43257.168114469103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44622.3068642945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45947.867858889898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47231.510236504197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48470.197001760404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49662.087193671097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57466.833725167002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58380.833024095802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59215.243593918203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59950.325301972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61137.4344365254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62251.122491360496</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63274.543386285601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64198.156534660302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65017.493099776497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65726.7632181433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66319.958292398995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66790.510452141505</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67131.692944201495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67337.508869815807</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67400.519520566202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-77AF-F240-9603-44571C6D746A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1421022367"/>
+        <c:axId val="1421024095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1421022367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421024095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1421024095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3763,7 +4579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631395135"/>
+        <c:crossAx val="1421022367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4010,6 +4826,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5559,6 +6415,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6218,6 +7590,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE9BDC7-4361-0037-50F0-F9C4865F0E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DF772A-2B85-5444-E498-B9D63F8ED4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6538,7 +7951,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6576,10 +7989,10 @@
       <c r="C2" s="1">
         <v>0.70146994263405305</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.70146994263405305</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.70146994263405305</v>
       </c>
     </row>
@@ -6593,10 +8006,10 @@
       <c r="C3" s="1">
         <v>0.59213682692307701</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.59213682692307701</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.59213682692307701</v>
       </c>
     </row>
@@ -6610,10 +8023,10 @@
       <c r="C4" s="1">
         <v>0.40927886200630098</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.58651972974790201</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.40927886200630098</v>
       </c>
     </row>
@@ -6627,10 +8040,10 @@
       <c r="C5" s="1">
         <v>0.40674406955409997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.58066981257294903</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.40674406955409997</v>
       </c>
     </row>
@@ -6644,10 +8057,10 @@
       <c r="C6" s="1">
         <v>0.40965913362023598</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.58012123160498097</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.40965913362023598</v>
       </c>
     </row>
@@ -6661,10 +8074,10 @@
       <c r="C7" s="1">
         <v>0.41980474293063502</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.57977870715726698</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.41980474293063502</v>
       </c>
     </row>
@@ -6678,10 +8091,10 @@
       <c r="C8" s="1">
         <v>0.42018364871734898</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.57991520895969595</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.42018364871734898</v>
       </c>
     </row>
@@ -6695,10 +8108,10 @@
       <c r="C9" s="1">
         <v>0.42351437443907097</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.58018970613533105</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.42351437443907097</v>
       </c>
     </row>
@@ -6712,10 +8125,10 @@
       <c r="C10" s="1">
         <v>0.43057027755129401</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.58040584380899496</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.43057027755129401</v>
       </c>
     </row>
@@ -6729,10 +8142,10 @@
       <c r="C11" s="1">
         <v>0.43935855596693202</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.58061652070732805</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.438135858646928</v>
       </c>
     </row>
@@ -6746,10 +8159,10 @@
       <c r="C12" s="1">
         <v>0.44829382567875897</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.58217456156246805</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.44582899276943899</v>
       </c>
     </row>
@@ -6763,10 +8176,10 @@
       <c r="C13" s="1">
         <v>0.45764514958358199</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.58498184884662396</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.453923893676763</v>
       </c>
     </row>
@@ -6780,10 +8193,10 @@
       <c r="C14" s="1">
         <v>0.46771344845809298</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.58795959484125204</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.46262368095256401</v>
       </c>
     </row>
@@ -6797,10 +8210,10 @@
       <c r="C15" s="1">
         <v>0.47897756137736802</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.59137179156797304</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.47231480142681098</v>
       </c>
     </row>
@@ -6814,10 +8227,10 @@
       <c r="C16" s="1">
         <v>0.49119229670647402</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.59519711250535401</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>0.48301259108926597</v>
       </c>
     </row>
@@ -6831,10 +8244,10 @@
       <c r="C17" s="1">
         <v>0.50414069065816103</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.599242602787465</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.49452644745707502</v>
       </c>
     </row>
@@ -6848,10 +8261,10 @@
       <c r="C18" s="1">
         <v>0.51817201462912499</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.60376997552745004</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>0.50725985239894</v>
       </c>
     </row>
@@ -6865,10 +8278,10 @@
       <c r="C19" s="1">
         <v>0.37401700730196602</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.61192346995476199</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>0.36549231481674699</v>
       </c>
     </row>
@@ -6882,10 +8295,10 @@
       <c r="C20" s="1">
         <v>0.39184390085706</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.62135563365991597</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>0.38245191513518401</v>
       </c>
     </row>
@@ -6899,10 +8312,10 @@
       <c r="C21" s="1">
         <v>0.41249721262678801</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.63200573857547404</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.40289249760609902</v>
       </c>
     </row>
@@ -6916,10 +8329,10 @@
       <c r="C22" s="1">
         <v>0.44213714452429598</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.64490615885147096</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.432231467065819</v>
       </c>
     </row>
@@ -6933,10 +8346,10 @@
       <c r="C23" s="1">
         <v>0.46614769471186401</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.65970145630293398</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.456269821204695</v>
       </c>
     </row>
@@ -6950,10 +8363,10 @@
       <c r="C24" s="1">
         <v>0.49841128390937101</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.67660732542488</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.48374799132180801</v>
       </c>
     </row>
@@ -6967,10 +8380,10 @@
       <c r="C25" s="1">
         <v>0.53963855271651195</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.70021245837979895</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.52464802866326998</v>
       </c>
     </row>
@@ -6984,10 +8397,10 @@
       <c r="C26" s="1">
         <v>0.58944454703918903</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.72673398306025605</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.57049501577556905</v>
       </c>
     </row>
@@ -7001,10 +8414,10 @@
       <c r="C27" s="1">
         <v>0.64627849569377904</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.75704415513754497</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>0.62179859114824498</v>
       </c>
     </row>
@@ -7018,10 +8431,10 @@
       <c r="C28" s="1">
         <v>0.709490484065882</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>0.79095597830638598</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>0.67921627881702795</v>
       </c>
     </row>
@@ -7035,10 +8448,10 @@
       <c r="C29" s="1">
         <v>0.78041243624529399</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>0.82888663331835</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>0.74344689379069495</v>
       </c>
     </row>
@@ -7052,10 +8465,10 @@
       <c r="C30" s="1">
         <v>0.86031716476334796</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>0.87715085627447897</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>0.81530578865409398</v>
       </c>
     </row>
@@ -7069,10 +8482,10 @@
       <c r="C31" s="1">
         <v>0.950087613610198</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>0.93103184276643602</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.89550449528902398</v>
       </c>
     </row>
@@ -7086,10 +8499,10 @@
       <c r="C32" s="1">
         <v>1.0025015873952601</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0.99120622419033799</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>0.98502635614164602</v>
       </c>
     </row>
@@ -7103,10 +8516,10 @@
       <c r="C33" s="1">
         <v>1.0532255368674299</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>1.0584782317908701</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>1.0850746239361799</v>
       </c>
     </row>
@@ -7121,7 +8534,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7153,16 +8566,16 @@
       <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>14987.403</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>14987.403</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>14987.403</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>14987.403</v>
       </c>
     </row>
@@ -7170,16 +8583,16 @@
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>21208.884999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>21208.884999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>21208.884999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>21208.884999999998</v>
       </c>
     </row>
@@ -7187,510 +8600,510 @@
       <c r="A4">
         <v>2023</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>21900.875427791099</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>31288.820740769901</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>21900.875427791099</v>
       </c>
-      <c r="E4">
-        <v>31288.820740769901</v>
+      <c r="E4" s="6">
+        <v>31288.820739999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>22619.911680015499</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>32001.981142047302</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>22619.911680015499</v>
       </c>
-      <c r="E5">
-        <v>32001.981142047302</v>
+      <c r="E5" s="6">
+        <v>32001.98114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>23061.509347153202</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>32424.005291011399</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>23061.509347153202</v>
       </c>
-      <c r="E6">
-        <v>32424.005291011399</v>
+      <c r="E6" s="6">
+        <v>32424.005290000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>23455.980838356401</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>32385.433732453501</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>23455.980838356401</v>
       </c>
-      <c r="E7">
-        <v>32385.433732453501</v>
+      <c r="E7" s="6">
+        <v>32385.433730000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>23799.8765366517</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>32849.457701826301</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>23799.8765366517</v>
       </c>
-      <c r="E8">
-        <v>32849.457701826301</v>
+      <c r="E8" s="6">
+        <v>32849.457699999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>24120.375003702298</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>33138.005761410597</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>24131.869590417999</v>
       </c>
-      <c r="E9">
-        <v>33138.005761410597</v>
+      <c r="E9" s="6">
+        <v>33138.00576</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>24328.209371340901</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>33180.606169871098</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>24449.704500641499</v>
       </c>
-      <c r="E10">
-        <v>33180.606169871098</v>
+      <c r="E10" s="6">
+        <v>33180.606169999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>24485.086241897799</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>33088.8737724608</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>24751.875117801901</v>
       </c>
-      <c r="E11">
-        <v>33161.036966448897</v>
+      <c r="E11" s="6">
+        <v>33161.036970000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>24583.043837208199</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>32924.911756857698</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>24935.130927709899</v>
       </c>
-      <c r="E12">
-        <v>33072.008907138101</v>
+      <c r="E12" s="6">
+        <v>33072.008909999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>24619.976776274099</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>32683.224346766201</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>25009.6985980883</v>
       </c>
-      <c r="E13">
-        <v>32907.473547378897</v>
+      <c r="E13" s="6">
+        <v>32907.473550000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>24589.868785309402</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>32350.5692588817</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>25042.4167695627</v>
       </c>
-      <c r="E14">
-        <v>32659.908045898301</v>
+      <c r="E14" s="6">
+        <v>32659.908049999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>24485.019999167202</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>31913.362538367099</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>25029.056701605699</v>
       </c>
-      <c r="E15">
-        <v>32321.4660249853</v>
+      <c r="E15" s="6">
+        <v>32321.46602</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>24297.241605700601</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>31378.896898404499</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>24964.771540699599</v>
       </c>
-      <c r="E16">
-        <v>31883.351012523101</v>
+      <c r="E16" s="6">
+        <v>31883.351009999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>24015.248148006602</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>30738.997533629401</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>24843.499783942501</v>
       </c>
-      <c r="E17">
-        <v>31334.997633815401</v>
+      <c r="E17" s="6">
+        <v>31334.997630000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>23630.163000605698</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>29988.0014583921</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>24660.5571127123</v>
       </c>
-      <c r="E18">
-        <v>30667.152414352298</v>
+      <c r="E18" s="6">
+        <v>30667.152409999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>23132.774434594499</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>39073.609294842099</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>24223.582570717499</v>
       </c>
-      <c r="E19">
-        <v>39605.717207375797</v>
+      <c r="E19" s="6">
+        <v>39605.717210000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>22510.6677608926</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>38047.244226533003</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>23688.613337011</v>
       </c>
-      <c r="E20">
-        <v>38634.822276043502</v>
+      <c r="E20" s="6">
+        <v>38634.82228</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>21751.078153442901</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>36794.602442446303</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>23047.043931070999</v>
       </c>
-      <c r="E21">
-        <v>37396.134347238301</v>
+      <c r="E21" s="6">
+        <v>37396.13435</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>20839.001097214001</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>34957.846135284497</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>22251.5547335954</v>
       </c>
-      <c r="E22">
-        <v>35578.574231913102</v>
+      <c r="E22" s="6">
+        <v>35578.574229999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>19759.953909703199</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>33460.263684228397</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>21328.8935735083</v>
       </c>
-      <c r="E23">
-        <v>34079.379212840598</v>
+      <c r="E23" s="6">
+        <v>34079.379209999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>18498.3640155961</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>31435.783908561301</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>20267.804895591598</v>
       </c>
-      <c r="E24">
-        <v>32354.768092981001</v>
+      <c r="E24" s="6">
+        <v>32354.768090000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>16982.429646701501</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>28849.9212215076</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>18787.0791743478</v>
       </c>
-      <c r="E25">
-        <v>29789.347058656</v>
+      <c r="E25" s="6">
+        <v>29789.34706</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>15173.783853144399</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>25709.519016866601</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>17112.2751104864</v>
       </c>
-      <c r="E26">
-        <v>26896.163429623299</v>
+      <c r="E26" s="6">
+        <v>26896.163430000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>13039.056558816499</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>22116.6331036019</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>15190.9488560434</v>
       </c>
-      <c r="E27">
-        <v>23647.252703070899</v>
+      <c r="E27" s="6">
+        <v>23647.252700000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>10643.6660745846</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>18123.824918237198</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>13041.4910409973</v>
       </c>
-      <c r="E28">
-        <v>20012.521726342598</v>
+      <c r="E28" s="6">
+        <v>20012.52173</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>7936.77737192124</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>13659.7380989424</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>10644.3358363892</v>
       </c>
-      <c r="E29">
-        <v>15959.2291082748</v>
+      <c r="E29" s="6">
+        <v>15959.22911</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>4890.5871975190003</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>8660.9585711691398</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>7617.19464319087</v>
       </c>
-      <c r="E30">
-        <v>11451.864576571201</v>
+      <c r="E30" s="6">
+        <v>11451.864579999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>1478.81435048822</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>3081.8887680899902</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>4258.5058441006904</v>
       </c>
-      <c r="E31">
-        <v>6452.17641508018</v>
+      <c r="E31" s="6">
+        <v>6452.1764149999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>-99.920400093004005</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>-153.62327895470699</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>540.02857419007296</v>
       </c>
-      <c r="E32">
-        <v>919.53623998147702</v>
+      <c r="E32" s="6">
+        <v>919.53624000000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>-1709.66787658825</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>-3247.2162925992802</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>-3567.6759354565702</v>
       </c>
-      <c r="E33">
-        <v>-5190.2849870800701</v>
+      <c r="E33" s="6">
+        <v>-5190.284987</v>
       </c>
     </row>
   </sheetData>
@@ -7703,8 +9116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BB774B-06B9-7B48-B4B6-47390EC6BDCC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8287,7 +9700,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8319,544 +9732,1112 @@
       <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
-        <v>1086.8039999999999</v>
+      <c r="B2" s="4">
+        <v>1086.8040000000001</v>
       </c>
       <c r="C2" s="3">
         <v>1086.8040000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>1086.8039999999999</v>
+        <v>1086.8040000000001</v>
       </c>
       <c r="E2" s="3">
-        <v>1086.8039999999999</v>
+        <v>1086.8040000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3" s="3">
-        <v>1123.1699999999998</v>
+      <c r="B3" s="4">
+        <v>1123.17</v>
       </c>
       <c r="C3" s="3">
-        <v>1123.1699999999998</v>
+        <v>1123.17</v>
       </c>
       <c r="D3" s="3">
-        <v>1123.1699999999998</v>
+        <v>1123.17</v>
       </c>
       <c r="E3" s="3">
-        <v>1123.1699999999998</v>
+        <v>1123.17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
-      <c r="B4" s="3">
-        <v>1480.7685745037734</v>
+      <c r="B4" s="4">
+        <v>1012.67361984</v>
       </c>
       <c r="C4" s="3">
-        <v>1480.7685745037743</v>
+        <v>1012.67361984</v>
       </c>
       <c r="D4" s="3">
-        <v>1480.7685745037743</v>
+        <v>1012.67361984</v>
       </c>
       <c r="E4" s="3">
-        <v>1480.7685745037743</v>
+        <v>1012.67361984</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5" s="3">
-        <v>1568.0456705938168</v>
+      <c r="B5" s="4">
+        <v>1039.5094707657599</v>
       </c>
       <c r="C5" s="3">
-        <v>1980.7156987990336</v>
+        <v>1039.5094707657599</v>
       </c>
       <c r="D5" s="3">
-        <v>1568.0456705938163</v>
+        <v>1039.5094707657599</v>
       </c>
       <c r="E5" s="3">
-        <v>1980.7156987990336</v>
+        <v>1039.5094707657599</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6" s="3">
-        <v>1656.7904932418035</v>
+      <c r="B6" s="4">
+        <v>1363.0558941525401</v>
       </c>
       <c r="C6" s="3">
-        <v>2246.3447847227067</v>
+        <v>1363.0558941525401</v>
       </c>
       <c r="D6" s="3">
-        <v>1656.7904932417998</v>
+        <v>1363.0558941525401</v>
       </c>
       <c r="E6" s="3">
-        <v>2246.3447847227067</v>
+        <v>1363.0558941525401</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
-      <c r="B7" s="3">
-        <v>1712.4175606126184</v>
+      <c r="B7" s="4">
+        <v>1443.4937115410601</v>
       </c>
       <c r="C7" s="3">
-        <v>2473.4482421726739</v>
+        <v>1817.44866155662</v>
       </c>
       <c r="D7" s="3">
-        <v>1700.8592871884978</v>
+        <v>1443.4937115410601</v>
       </c>
       <c r="E7" s="3">
-        <v>2473.4482421726739</v>
+        <v>1817.44866155662</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
-      <c r="B8" s="3">
-        <v>1861.1143444108184</v>
+      <c r="B8" s="4">
+        <v>1525.10477767613</v>
       </c>
       <c r="C8" s="3">
-        <v>2761.4038864086647</v>
+        <v>2059.3494054264302</v>
       </c>
       <c r="D8" s="3">
-        <v>1746.0718144057073</v>
+        <v>1525.10477767613</v>
       </c>
       <c r="E8" s="3">
-        <v>2761.4038864086647</v>
+        <v>2059.3494054264302</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
-      <c r="B9" s="3">
-        <v>1935.8673400773919</v>
+      <c r="B9" s="4">
+        <v>1576.7135422245999</v>
       </c>
       <c r="C9" s="3">
-        <v>2911.6010297632224</v>
+        <v>2266.3473198964298</v>
       </c>
       <c r="D9" s="3">
-        <v>1792.4702772434857</v>
+        <v>1565.6297556747299</v>
       </c>
       <c r="E9" s="3">
-        <v>2835.303755241102</v>
+        <v>2266.3473198964298</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
-      <c r="B10" s="3">
-        <v>2013.9371116515672</v>
+      <c r="B10" s="4">
+        <v>1712.4494424868101</v>
       </c>
       <c r="C10" s="3">
-        <v>2983.8612341837625</v>
+        <v>2528.2773622937698</v>
       </c>
       <c r="D10" s="3">
-        <v>1929.5354447528148</v>
+        <v>1607.21698858532</v>
       </c>
       <c r="E10" s="3">
-        <v>2911.0851792342205</v>
+        <v>2528.2773622937698</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
-      <c r="B11" s="3">
-        <v>2090.5781034022239</v>
+      <c r="B11" s="4">
+        <v>1781.14956946555</v>
       </c>
       <c r="C11" s="3">
-        <v>3057.2310080213124</v>
+        <v>2665.34376389712</v>
       </c>
       <c r="D11" s="3">
-        <v>2081.9488048515623</v>
+        <v>1649.8934710385299</v>
       </c>
       <c r="E11" s="3">
-        <v>2988.7904101332674</v>
+        <v>2595.75957973298</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
-      <c r="B12" s="3">
-        <v>2169.1884527319339</v>
+      <c r="B12" s="4">
+        <v>1853.26675972624</v>
       </c>
       <c r="C12" s="3">
-        <v>3138.9175477746649</v>
+        <v>2732.19641773389</v>
       </c>
       <c r="D12" s="3">
-        <v>2137.1463469064029</v>
+        <v>1790.43967559662</v>
       </c>
       <c r="E12" s="3">
-        <v>3068.7455556232403</v>
+        <v>2665.1941002703502</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
-      <c r="B13" s="3">
-        <v>2251.2521896082781</v>
+      <c r="B13" s="4">
+        <v>1924.09135282283</v>
       </c>
       <c r="C13" s="3">
-        <v>3228.3964307104948</v>
+        <v>2800.0566857097301</v>
       </c>
       <c r="D13" s="3">
-        <v>2193.802709634318</v>
+        <v>1913.4341851643801</v>
       </c>
       <c r="E13" s="3">
-        <v>3150.7058291453063</v>
+        <v>2736.37086794383</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
-      <c r="B14" s="3">
-        <v>2336.2980074680358</v>
+      <c r="B14" s="4">
+        <v>1996.3662242171899</v>
       </c>
       <c r="C14" s="3">
-        <v>3301.9886884490516</v>
+        <v>2875.1191514470001</v>
       </c>
       <c r="D14" s="3">
-        <v>2251.9589629243765</v>
+        <v>1964.1578051481199</v>
       </c>
       <c r="E14" s="3">
-        <v>3234.7943955003125</v>
+        <v>2809.3962771634301</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
-      <c r="B15" s="3">
-        <v>2424.729757023495</v>
+      <c r="B15" s="4">
+        <v>2071.4947733580998</v>
       </c>
       <c r="C15" s="3">
-        <v>3374.5056642775944</v>
+        <v>2956.9671868226901</v>
       </c>
       <c r="D15" s="3">
-        <v>2311.6521827470301</v>
+        <v>2016.22201126698</v>
       </c>
       <c r="E15" s="3">
-        <v>3320.9900744728161</v>
+        <v>2884.2525981511599</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
-      <c r="B16" s="3">
-        <v>2516.4149091276495</v>
+      <c r="B16" s="4">
+        <v>2149.1368322540802</v>
       </c>
       <c r="C16" s="3">
-        <v>3445.9551462576155</v>
+        <v>3024.2302135382802</v>
       </c>
       <c r="D16" s="3">
-        <v>2372.9249128559018</v>
+        <v>2069.6638892143801</v>
       </c>
       <c r="E16" s="3">
-        <v>3409.4013942349361</v>
+        <v>2961.03366320035</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
-      <c r="B17" s="3">
-        <v>2610.7190879487152</v>
+      <c r="B17" s="4">
+        <v>2230.9086316634598</v>
       </c>
       <c r="C17" s="3">
-        <v>3516.4773247681551</v>
+        <v>3091.5803006671799</v>
       </c>
       <c r="D17" s="3">
-        <v>2620.6768012047683</v>
+        <v>2124.5282346072599</v>
       </c>
       <c r="E17" s="3">
-        <v>3500.3669480788981</v>
+        <v>3040.0311738063601</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
-      <c r="B18" s="3">
-        <v>2709.4230407164009</v>
+      <c r="B18" s="4">
+        <v>2315.4625789431002</v>
       </c>
       <c r="C18" s="3">
-        <v>3586.528897505691</v>
+        <v>3157.7970087663698</v>
       </c>
       <c r="D18" s="3">
-        <v>2697.4411362252918</v>
+        <v>2180.8425452735701</v>
       </c>
       <c r="E18" s="3">
-        <v>3593.610031651695</v>
+        <v>3121.0076890381101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
-      <c r="B19" s="3">
-        <v>2811.8669221418854</v>
+      <c r="B19" s="4">
+        <v>2401.6126958285199</v>
       </c>
       <c r="C19" s="3">
-        <v>3707.7048831472589</v>
+        <v>3222.3962590282199</v>
       </c>
       <c r="D19" s="3">
-        <v>2775.6521764198014</v>
+        <v>2418.3722646768501</v>
       </c>
       <c r="E19" s="3">
-        <v>3760.7880037483392</v>
+        <v>3204.09669965491</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
-      <c r="B20" s="3">
-        <v>2918.0986209740176</v>
+      <c r="B20" s="4">
+        <v>2491.5777860826402</v>
       </c>
       <c r="C20" s="3">
-        <v>4178.3831602840246</v>
+        <v>3286.3970227995001</v>
       </c>
       <c r="D20" s="3">
-        <v>2902.2322893637001</v>
+        <v>2486.96724171299</v>
       </c>
       <c r="E20" s="3">
-        <v>4227.5830513801384</v>
+        <v>3289.3030915387099</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
-      <c r="B21" s="3">
-        <v>3028.1817018225556</v>
+      <c r="B21" s="4">
+        <v>2584.7571011997902</v>
       </c>
       <c r="C21" s="3">
-        <v>4607.8321499540943</v>
+        <v>3396.55106982601</v>
       </c>
       <c r="D21" s="3">
-        <v>2979.1871248968378</v>
+        <v>2556.71125827989</v>
       </c>
       <c r="E21" s="3">
-        <v>4659.4166233290262</v>
+        <v>3444.6541409343799</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
-      <c r="B22" s="3">
-        <v>3141.865267350744</v>
+      <c r="B22" s="4">
+        <v>2681.9792520113401</v>
       </c>
       <c r="C22" s="3">
-        <v>5054.3154575084036</v>
+        <v>3824.0288550629498</v>
       </c>
       <c r="D22" s="3">
-        <v>3058.1853965326313</v>
+        <v>2663.9066376842702</v>
       </c>
       <c r="E22" s="3">
-        <v>4785.2788250118183</v>
+        <v>3868.6130059779898</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
-      <c r="B23" s="3">
-        <v>3317.1358258631312</v>
+      <c r="B23" s="4">
+        <v>2782.4927515593299</v>
       </c>
       <c r="C23" s="3">
-        <v>5495.0129363092437</v>
+        <v>4213.9466105716801</v>
       </c>
       <c r="D23" s="3">
-        <v>3418.4610017545615</v>
+        <v>2734.5320971410802</v>
       </c>
       <c r="E23" s="3">
-        <v>5547.0912687081836</v>
+        <v>4260.69163163948</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
-      <c r="B24" s="3">
-        <v>3513.0243744445083</v>
+      <c r="B24" s="4">
+        <v>2886.1424425733398</v>
       </c>
       <c r="C24" s="3">
-        <v>5883.5534204752212</v>
+        <v>4619.1740813819097</v>
       </c>
       <c r="D24" s="3">
-        <v>3513.0204307738127</v>
+        <v>2807.0283879478502</v>
       </c>
       <c r="E24" s="3">
-        <v>5696.0842927480053</v>
+        <v>4375.0949906332598</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
-      <c r="B25" s="3">
-        <v>3720.8934896063129</v>
+      <c r="B25" s="4">
+        <v>3045.64646706127</v>
       </c>
       <c r="C25" s="3">
-        <v>6118.9341602610184</v>
+        <v>5019.2037169517498</v>
       </c>
       <c r="D25" s="3">
-        <v>3655.3297644167797</v>
+        <v>3140.5144967862302</v>
       </c>
       <c r="E25" s="3">
-        <v>5848.5635422787318</v>
+        <v>5066.3962651332604</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
-      <c r="B26" s="3">
-        <v>3833.2807124418546</v>
+      <c r="B26" s="4">
+        <v>3223.6200401082501</v>
       </c>
       <c r="C26" s="3">
-        <v>6262.358878661893</v>
+        <v>5371.7553790721404</v>
       </c>
       <c r="D26" s="3">
-        <v>3751.707080140638</v>
+        <v>3225.9432444531299</v>
       </c>
       <c r="E26" s="3">
-        <v>6004.8389766629289</v>
+        <v>5201.7638766011796</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
-      <c r="B27" s="3">
-        <v>3980.8360228932866</v>
+      <c r="B27" s="4">
+        <v>3414.2873509728502</v>
       </c>
       <c r="C27" s="3">
-        <v>6451.6003251451284</v>
+        <v>5587.3532821967701</v>
       </c>
       <c r="D27" s="3">
-        <v>3850.0461313520245</v>
+        <v>3349.6384920855799</v>
       </c>
       <c r="E27" s="3">
-        <v>6166.8165521880273</v>
+        <v>5342.06105400455</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
-      <c r="B28" s="3">
-        <v>4132.5467639053459</v>
+      <c r="B28" s="4">
+        <v>3518.1696538133401</v>
       </c>
       <c r="C28" s="3">
-        <v>6670.0537590795302</v>
+        <v>5719.3612649011902</v>
       </c>
       <c r="D28" s="3">
-        <v>4327.6666468798803</v>
+        <v>3437.6877662291099</v>
       </c>
       <c r="E28" s="3">
-        <v>6332.431749286221</v>
+        <v>5485.5129922157503</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
-      <c r="B29" s="3">
-        <v>4284.9673158725273</v>
+      <c r="B29" s="4">
+        <v>3652.23556526827</v>
       </c>
       <c r="C29" s="3">
-        <v>6894.0738600933764</v>
+        <v>5891.2024831403596</v>
       </c>
       <c r="D29" s="3">
-        <v>4445.9555294235734</v>
+        <v>3528.1373252331</v>
       </c>
       <c r="E29" s="3">
-        <v>6502.2304982751675</v>
+        <v>5632.5898910737596</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
-      <c r="B30" s="3">
-        <v>2068.4097965451297</v>
+      <c r="B30" s="4">
+        <v>3790.08572953362</v>
       </c>
       <c r="C30" s="3">
-        <v>3960.1593311822612</v>
+        <v>6089.5338035105897</v>
       </c>
       <c r="D30" s="3">
-        <v>4566.3756171229461</v>
+        <v>3968.8324923405999</v>
       </c>
       <c r="E30" s="3">
-        <v>6675.975301186937</v>
+        <v>5783.08822063563</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
-      <c r="B31" s="3">
-        <v>1982.7381082661611</v>
+      <c r="B31" s="4">
+        <v>3928.49965032105</v>
       </c>
       <c r="C31" s="3">
-        <v>3557.3691428770126</v>
+        <v>6292.8300853973697</v>
       </c>
       <c r="D31" s="3">
-        <v>4689.4868462865952</v>
+        <v>4075.8145101541299</v>
       </c>
       <c r="E31" s="3">
-        <v>6854.0484917185458</v>
+        <v>5937.3375252256101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
-      <c r="B32" s="3">
-        <v>1947.2699722993275</v>
+      <c r="B32" s="4">
+        <v>1922.25270527373</v>
       </c>
       <c r="C32" s="3">
-        <v>3188.7355782250552</v>
+        <v>3636.5257426056201</v>
       </c>
       <c r="D32" s="3">
-        <v>4818.4869090481297</v>
+        <v>4187.8902434212396</v>
       </c>
       <c r="E32" s="3">
-        <v>7038.2896236576817</v>
+        <v>6096.9205779854501</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
+      <c r="B33" s="4">
+        <v>1846.7793237306901</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3273.68467084749</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4302.0523257531004</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6260.2450592917903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305F551A-C702-2F47-B2DE-1F5885C2B35B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="3">
+        <v>22376.512741827199</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31544.428090000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22376.512741827199</v>
+      </c>
+      <c r="E4" s="3">
+        <v>31544.428086533098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23552.321374413899</v>
+      </c>
+      <c r="C5" s="6">
+        <v>32499.760060000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>23552.321374413899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>32499.760055093098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24727.4415502019</v>
+      </c>
+      <c r="C6" s="6">
+        <v>33446.945379999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24727.4415502019</v>
+      </c>
+      <c r="E6" s="3">
+        <v>33446.9453774629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25895.677470553899</v>
+      </c>
+      <c r="C7" s="6">
+        <v>34357.07761</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25895.677470553899</v>
+      </c>
+      <c r="E7" s="3">
+        <v>34357.077613207097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="3">
+        <v>27055.689055876301</v>
+      </c>
+      <c r="C8" s="6">
+        <v>35907.946349999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27055.689055876301</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35907.946349058497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28205.823706931998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>37440.148139999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28206.180019277799</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37440.148140402001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="3">
+        <v>29342.029306308901</v>
+      </c>
+      <c r="C10" s="6">
+        <v>38944.11073</v>
+      </c>
+      <c r="D10" s="3">
+        <v>29346.190675817001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38944.1107311253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30462.155448988098</v>
+      </c>
+      <c r="C11" s="6">
+        <v>40414.239659999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>30475.516526942301</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40416.372965379902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="3">
+        <v>31563.648446999701</v>
+      </c>
+      <c r="C12" s="6">
+        <v>41847.347379999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>31589.989311483401</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41854.488784618101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="3">
+        <v>32645.201391911301</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43242.188670000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>32686.157855897502</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43257.168114469103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2033</v>
+      </c>
+      <c r="B14" s="3">
+        <v>33704.754671004797</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44596.553970000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>33762.092648009799</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44622.3068642945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="3">
+        <v>34740.310001417201</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45908.102339999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>34816.722813253</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45947.867858889898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2035</v>
+      </c>
+      <c r="B16" s="3">
+        <v>35749.558564043</v>
+      </c>
+      <c r="C16" s="6">
+        <v>47174.582799999996</v>
+      </c>
+      <c r="D16" s="3">
+        <v>35848.7196958567</v>
+      </c>
+      <c r="E16" s="3">
+        <v>47231.510236504197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2036</v>
+      </c>
+      <c r="B17" s="3">
+        <v>36729.458644169601</v>
+      </c>
+      <c r="C17" s="6">
+        <v>48393.2595</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36856.113447678799</v>
+      </c>
+      <c r="E17" s="3">
+        <v>48470.197001760404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2037</v>
+      </c>
+      <c r="B18" s="3">
+        <v>37678.145745161099</v>
+      </c>
+      <c r="C18" s="6">
+        <v>49562.688600000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>37838.182563216302</v>
+      </c>
+      <c r="E18" s="3">
+        <v>49662.087193671097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2038</v>
+      </c>
+      <c r="B19" s="3">
+        <v>38593.026839817103</v>
+      </c>
+      <c r="C19" s="6">
+        <v>57491.719790000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>38788.947390626701</v>
+      </c>
+      <c r="E19" s="3">
+        <v>57466.833725167002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2039</v>
+      </c>
+      <c r="B20" s="3">
+        <v>39471.220164812199</v>
+      </c>
+      <c r="C20" s="6">
+        <v>58375.245819999996</v>
+      </c>
+      <c r="D20" s="3">
+        <v>39704.791618237097</v>
+      </c>
+      <c r="E20" s="3">
+        <v>58380.833024095802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2040</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40309.6640187909</v>
+      </c>
+      <c r="C21" s="6">
+        <v>59178.364249999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>40583.498992152701</v>
+      </c>
+      <c r="E21" s="3">
+        <v>59215.243593918203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2041</v>
+      </c>
+      <c r="B22" s="3">
+        <v>41104.856687448802</v>
+      </c>
+      <c r="C22" s="6">
+        <v>59882.002419999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>41421.649107482597</v>
+      </c>
+      <c r="E22" s="3">
+        <v>59950.325301972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2042</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41853.678051168703</v>
+      </c>
+      <c r="C23" s="6">
+        <v>61050.296280000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42216.846923610603</v>
+      </c>
+      <c r="E23" s="3">
+        <v>61137.4344365254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2043</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42552.742450301099</v>
+      </c>
+      <c r="C24" s="6">
+        <v>62139.110030000003</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42966.796997450503</v>
+      </c>
+      <c r="E24" s="3">
+        <v>62251.122491360496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2044</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43197.106550985503</v>
+      </c>
+      <c r="C25" s="6">
+        <v>63135.48126</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43663.155323398001</v>
+      </c>
+      <c r="E25" s="3">
+        <v>63274.543386285601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2045</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43780.956425734199</v>
+      </c>
+      <c r="C26" s="6">
+        <v>64027.403389999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44300.819604363001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>64198.156534660302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2046</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44299.048377447201</v>
+      </c>
+      <c r="C27" s="6">
+        <v>64807.006179999997</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44876.770774827601</v>
+      </c>
+      <c r="E27" s="3">
+        <v>65017.493099776497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2047</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44746.659922590399</v>
+      </c>
+      <c r="C28" s="6">
+        <v>65467.91704</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45387.284228917502</v>
+      </c>
+      <c r="E28" s="3">
+        <v>65726.7632181433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2048</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45119.040109224399</v>
+      </c>
+      <c r="C29" s="6">
+        <v>66003.437139999995</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45828.800970814998</v>
+      </c>
+      <c r="E29" s="3">
+        <v>66319.958292398995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2049</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45410.749525085201</v>
+      </c>
+      <c r="C30" s="6">
+        <v>66405.580119999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>46190.518140230102</v>
+      </c>
+      <c r="E30" s="3">
+        <v>66790.510452141505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2050</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45616.3186326918</v>
+      </c>
+      <c r="C31" s="6">
+        <v>66665.993659999993</v>
+      </c>
+      <c r="D31" s="3">
+        <v>46465.558854458599</v>
+      </c>
+      <c r="E31" s="3">
+        <v>67131.692944201495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2051</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45771.160789527501</v>
+      </c>
+      <c r="C32" s="6">
+        <v>66830.397979999994</v>
+      </c>
+      <c r="D32" s="3">
+        <v>46650.151492791403</v>
+      </c>
+      <c r="E32" s="3">
+        <v>67337.508869815807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2052</v>
+      </c>
       <c r="B33" s="3">
-        <v>1879.2367220631293</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2872.7996431062343</v>
+        <v>45888.699183360099</v>
+      </c>
+      <c r="C33" s="6">
+        <v>66920.616620000001</v>
       </c>
       <c r="D33" s="3">
-        <v>4949.8779643253347</v>
+        <v>46739.1961304086</v>
       </c>
       <c r="E33" s="3">
-        <v>7226.8462591377665</v>
+        <v>67400.519520566202</v>
       </c>
     </row>
   </sheetData>
